--- a/Unit 9/Unit 9 Exercises - Workbooks-20231019/Exe 9.3B.xlsx
+++ b/Unit 9/Unit 9 Exercises - Workbooks-20231019/Exe 9.3B.xlsx
@@ -1,22 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indra Dewaji\Documents\GitHub\researchmethodology\Unit 9\Unit 9 Exercises - Workbooks-20231019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678A3FA-F0CE-4398-A17D-C07FF5C5F6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diets" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>Diet</t>
   </si>
@@ -78,11 +119,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -130,12 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -160,18 +201,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -189,13 +249,15 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -206,6 +268,7 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Diets!$K$4:$K$10</c:f>
@@ -266,7 +329,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5116-453A-B5B4-0893D8305941}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="0"/>
         <c:axId val="50224512"/>
         <c:axId val="67326336"/>
@@ -276,6 +352,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -293,22 +370,25 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="67326336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="67326336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -326,9 +406,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50224512"/>
         <c:crosses val="autoZero"/>
@@ -336,6 +418,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -362,7 +446,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -381,9 +471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +511,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -455,6 +545,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -489,9 +580,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,20 +756,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -699,7 +791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -729,7 +821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -758,7 +850,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -786,7 +878,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -810,7 +902,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -838,7 +930,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -866,7 +958,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -894,7 +986,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -915,7 +1007,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -937,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -945,7 +1037,7 @@
         <v>7.2649999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -953,7 +1045,7 @@
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -961,7 +1053,7 @@
         <v>3.7549999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -969,7 +1061,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -984,7 +1076,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -999,7 +1091,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1106,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1121,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1136,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1151,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1074,7 +1166,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1089,7 +1181,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1196,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1119,7 +1211,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1226,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1241,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1256,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1271,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1286,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1301,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1316,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1324,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1240,7 +1332,7 @@
         <v>5.569</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1340,7 @@
         <v>6.7119999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1348,7 @@
         <v>3.6629999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1356,7 @@
         <v>2.7410000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -1272,7 +1364,7 @@
         <v>6.2560000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1286,7 +1378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -1316,7 +1408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1330,8 +1422,18 @@
         <f>AVERAGE(B52:B101)</f>
         <v>3.709960000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" cm="1">
+        <f t="array" ref="I41:I48">FREQUENCY(B52:B101,H41:H47)</f>
+        <v>3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -1345,16 +1447,34 @@
         <f>STDEV(B52:B101)</f>
         <v>2.7690419986349206</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="3">
         <v>3.613</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="H43" s="5">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -1364,8 +1484,21 @@
       <c r="E44" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="F44" s="11">
+        <f>MIN(B52:B101)</f>
+        <v>-4.1479999999999997</v>
+      </c>
+      <c r="H44" s="5">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>11</v>
+      </c>
+      <c r="K44" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -1375,8 +1508,21 @@
       <c r="E45" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="F45" s="11">
+        <f>MAX(B52:B101)</f>
+        <v>10.539</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>8</v>
+      </c>
+      <c r="K45" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -1386,24 +1532,55 @@
       <c r="E46" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="F46">
+        <f>STDEV(B52:B101)</f>
+        <v>2.7690419986349206</v>
+      </c>
+      <c r="H46" s="5">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="3">
         <v>0.20300000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="H47" s="5">
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="3">
         <v>4.4409999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="H48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1588,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +1596,7 @@
         <v>5.7149999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1604,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1612,7 @@
         <v>-1.087</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1620,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
@@ -1451,7 +1628,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
@@ -1459,7 +1636,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>3</v>
       </c>
@@ -1467,7 +1644,7 @@
         <v>1.889</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1475,7 +1652,7 @@
         <v>3.089</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1660,7 @@
         <v>4.008</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1668,7 @@
         <v>4.5510000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1676,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1684,7 @@
         <v>3.4129999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1692,7 @@
         <v>-4.1479999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1700,7 @@
         <v>2.823</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -1531,7 +1708,7 @@
         <v>2.8650000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
@@ -1539,7 +1716,7 @@
         <v>4.3689999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>3</v>
       </c>
@@ -1547,7 +1724,7 @@
         <v>6.3369999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1732,7 @@
         <v>6.3079999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1740,7 @@
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +1748,7 @@
         <v>10.539</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>3</v>
       </c>
@@ -1579,7 +1756,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +1764,7 @@
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
@@ -1595,7 +1772,7 @@
         <v>5.4850000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +1780,7 @@
         <v>-1.8939999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
@@ -1611,7 +1788,7 @@
         <v>8.016</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +1796,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
@@ -1627,7 +1804,7 @@
         <v>3.8820000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
@@ -1635,7 +1812,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>3</v>
       </c>
@@ -1643,7 +1820,7 @@
         <v>7.7270000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -1651,7 +1828,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1836,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
@@ -1667,7 +1844,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1852,7 @@
         <v>4.9850000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -1683,7 +1860,7 @@
         <v>5.1589999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1868,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>3</v>
       </c>
@@ -1699,7 +1876,7 @@
         <v>4.9340000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1884,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>3</v>
       </c>
@@ -1715,7 +1892,7 @@
         <v>5.5979999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
@@ -1723,7 +1900,7 @@
         <v>2.1619999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
@@ -1731,7 +1908,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
@@ -1739,7 +1916,7 @@
         <v>7.0460000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
@@ -1747,7 +1924,7 @@
         <v>1.7569999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
@@ -1755,7 +1932,7 @@
         <v>1.8480000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>3</v>
       </c>
@@ -1763,7 +1940,7 @@
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
@@ -1771,7 +1948,7 @@
         <v>2.145</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -1779,7 +1956,7 @@
         <v>8.4350000000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>3</v>
       </c>
@@ -1787,7 +1964,7 @@
         <v>6.0990000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1972,7 @@
         <v>3.972</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
@@ -1803,7 +1980,7 @@
         <v>2.4089999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1988,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>3</v>
       </c>
@@ -1819,7 +1996,7 @@
         <v>7.0129999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
@@ -1837,12 +2014,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1851,12 +2028,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
